--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Pros1-Axl.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Pros1-Axl.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.9794649118785</v>
+        <v>30.168014</v>
       </c>
       <c r="H2">
-        <v>29.9794649118785</v>
+        <v>90.504042</v>
       </c>
       <c r="I2">
-        <v>0.2354521083877472</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="J2">
-        <v>0.2354521083877472</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.82037856335803</v>
+        <v>4.203295</v>
       </c>
       <c r="N2">
-        <v>3.82037856335803</v>
+        <v>12.609885</v>
       </c>
       <c r="O2">
-        <v>0.03099806171511114</v>
+        <v>0.03029823713397533</v>
       </c>
       <c r="P2">
-        <v>0.03099806171511114</v>
+        <v>0.03029823713397533</v>
       </c>
       <c r="Q2">
-        <v>114.5329050902849</v>
+        <v>126.80506240613</v>
       </c>
       <c r="R2">
-        <v>114.5329050902849</v>
+        <v>1141.24556165517</v>
       </c>
       <c r="S2">
-        <v>0.007298558986756426</v>
+        <v>0.007117746180616257</v>
       </c>
       <c r="T2">
-        <v>0.007298558986756426</v>
+        <v>0.007117746180616258</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.9794649118785</v>
+        <v>30.168014</v>
       </c>
       <c r="H3">
-        <v>29.9794649118785</v>
+        <v>90.504042</v>
       </c>
       <c r="I3">
-        <v>0.2354521083877472</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="J3">
-        <v>0.2354521083877472</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>63.6653629877145</v>
+        <v>63.83795266666667</v>
       </c>
       <c r="N3">
-        <v>63.6653629877145</v>
+        <v>191.513858</v>
       </c>
       <c r="O3">
-        <v>0.5165725904590619</v>
+        <v>0.4601574307875511</v>
       </c>
       <c r="P3">
-        <v>0.5165725904590619</v>
+        <v>0.4601574307875511</v>
       </c>
       <c r="Q3">
-        <v>1908.653515792195</v>
+        <v>1925.864249779337</v>
       </c>
       <c r="R3">
-        <v>1908.653515792195</v>
+        <v>17332.77824801403</v>
       </c>
       <c r="S3">
-        <v>0.1216281055589064</v>
+        <v>0.108101464154081</v>
       </c>
       <c r="T3">
-        <v>0.1216281055589064</v>
+        <v>0.108101464154081</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.9794649118785</v>
+        <v>30.168014</v>
       </c>
       <c r="H4">
-        <v>29.9794649118785</v>
+        <v>90.504042</v>
       </c>
       <c r="I4">
-        <v>0.2354521083877472</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="J4">
-        <v>0.2354521083877472</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.17781945588362</v>
+        <v>8.211444666666667</v>
       </c>
       <c r="N4">
-        <v>7.17781945588362</v>
+        <v>24.634334</v>
       </c>
       <c r="O4">
-        <v>0.05823990653895685</v>
+        <v>0.05918982553524883</v>
       </c>
       <c r="P4">
-        <v>0.05823990653895685</v>
+        <v>0.05918982553524883</v>
       </c>
       <c r="Q4">
-        <v>215.1871865214618</v>
+        <v>247.7229776642253</v>
       </c>
       <c r="R4">
-        <v>215.1871865214618</v>
+        <v>2229.506798978028</v>
       </c>
       <c r="S4">
-        <v>0.01371270878690274</v>
+        <v>0.01390503852656271</v>
       </c>
       <c r="T4">
-        <v>0.01371270878690274</v>
+        <v>0.01390503852656271</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.9794649118785</v>
+        <v>30.168014</v>
       </c>
       <c r="H5">
-        <v>29.9794649118785</v>
+        <v>90.504042</v>
       </c>
       <c r="I5">
-        <v>0.2354521083877472</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="J5">
-        <v>0.2354521083877472</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.1295626860718</v>
+        <v>29.94042966666667</v>
       </c>
       <c r="N5">
-        <v>19.1295626860718</v>
+        <v>89.82128900000001</v>
       </c>
       <c r="O5">
-        <v>0.1552148183463591</v>
+        <v>0.2158169336041788</v>
       </c>
       <c r="P5">
-        <v>0.1552148183463591</v>
+        <v>0.2158169336041788</v>
       </c>
       <c r="Q5">
-        <v>573.4940533266698</v>
+        <v>903.2433013500154</v>
       </c>
       <c r="R5">
-        <v>573.4940533266698</v>
+        <v>8129.189712150139</v>
       </c>
       <c r="S5">
-        <v>0.03654565623267143</v>
+        <v>0.0507003146117335</v>
       </c>
       <c r="T5">
-        <v>0.03654565623267143</v>
+        <v>0.0507003146117335</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.9794649118785</v>
+        <v>30.168014</v>
       </c>
       <c r="H6">
-        <v>29.9794649118785</v>
+        <v>90.504042</v>
       </c>
       <c r="I6">
-        <v>0.2354521083877472</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="J6">
-        <v>0.2354521083877472</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.4526004580291</v>
+        <v>32.53755666666667</v>
       </c>
       <c r="N6">
-        <v>29.4526004580291</v>
+        <v>97.61267000000001</v>
       </c>
       <c r="O6">
-        <v>0.2389746229405111</v>
+        <v>0.2345375729390458</v>
       </c>
       <c r="P6">
-        <v>0.2389746229405111</v>
+        <v>0.2345375729390459</v>
       </c>
       <c r="Q6">
-        <v>882.9732019950601</v>
+        <v>981.5934650457933</v>
       </c>
       <c r="R6">
-        <v>882.9732019950601</v>
+        <v>8834.34118541214</v>
       </c>
       <c r="S6">
-        <v>0.05626707882251024</v>
+        <v>0.05509821929956182</v>
       </c>
       <c r="T6">
-        <v>0.05626707882251024</v>
+        <v>0.05509821929956183</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.67807409168709</v>
+        <v>65.93392299999999</v>
       </c>
       <c r="H7">
-        <v>65.67807409168709</v>
+        <v>197.801769</v>
       </c>
       <c r="I7">
-        <v>0.5158211150595693</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="J7">
-        <v>0.5158211150595693</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.82037856335803</v>
+        <v>4.203295</v>
       </c>
       <c r="N7">
-        <v>3.82037856335803</v>
+        <v>12.609885</v>
       </c>
       <c r="O7">
-        <v>0.03099806171511114</v>
+        <v>0.03029823713397533</v>
       </c>
       <c r="P7">
-        <v>0.03099806171511114</v>
+        <v>0.03029823713397533</v>
       </c>
       <c r="Q7">
-        <v>250.9151063425218</v>
+        <v>277.1397288762849</v>
       </c>
       <c r="R7">
-        <v>250.9151063425218</v>
+        <v>2494.257559886565</v>
       </c>
       <c r="S7">
-        <v>0.01598945475857397</v>
+        <v>0.01555624207169542</v>
       </c>
       <c r="T7">
-        <v>0.01598945475857397</v>
+        <v>0.01555624207169542</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>65.67807409168709</v>
+        <v>65.93392299999999</v>
       </c>
       <c r="H8">
-        <v>65.67807409168709</v>
+        <v>197.801769</v>
       </c>
       <c r="I8">
-        <v>0.5158211150595693</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="J8">
-        <v>0.5158211150595693</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>63.6653629877145</v>
+        <v>63.83795266666667</v>
       </c>
       <c r="N8">
-        <v>63.6653629877145</v>
+        <v>191.513858</v>
       </c>
       <c r="O8">
-        <v>0.5165725904590619</v>
+        <v>0.4601574307875511</v>
       </c>
       <c r="P8">
-        <v>0.5165725904590619</v>
+        <v>0.4601574307875511</v>
       </c>
       <c r="Q8">
-        <v>4181.418427381266</v>
+        <v>4209.086655601644</v>
       </c>
       <c r="R8">
-        <v>4181.418427381266</v>
+        <v>37881.7799004148</v>
       </c>
       <c r="S8">
-        <v>0.2664590496198035</v>
+        <v>0.2362619433192532</v>
       </c>
       <c r="T8">
-        <v>0.2664590496198035</v>
+        <v>0.2362619433192532</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>65.67807409168709</v>
+        <v>65.93392299999999</v>
       </c>
       <c r="H9">
-        <v>65.67807409168709</v>
+        <v>197.801769</v>
       </c>
       <c r="I9">
-        <v>0.5158211150595693</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="J9">
-        <v>0.5158211150595693</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.17781945588362</v>
+        <v>8.211444666666667</v>
       </c>
       <c r="N9">
-        <v>7.17781945588362</v>
+        <v>24.634334</v>
       </c>
       <c r="O9">
-        <v>0.05823990653895685</v>
+        <v>0.05918982553524883</v>
       </c>
       <c r="P9">
-        <v>0.05823990653895685</v>
+        <v>0.05918982553524883</v>
       </c>
       <c r="Q9">
-        <v>471.4253580402776</v>
+        <v>541.4127603707607</v>
       </c>
       <c r="R9">
-        <v>471.4253580402776</v>
+        <v>4872.714843336846</v>
       </c>
       <c r="S9">
-        <v>0.03004137353188982</v>
+        <v>0.03039025835517111</v>
       </c>
       <c r="T9">
-        <v>0.03004137353188982</v>
+        <v>0.03039025835517111</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>65.67807409168709</v>
+        <v>65.93392299999999</v>
       </c>
       <c r="H10">
-        <v>65.67807409168709</v>
+        <v>197.801769</v>
       </c>
       <c r="I10">
-        <v>0.5158211150595693</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="J10">
-        <v>0.5158211150595693</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.1295626860718</v>
+        <v>29.94042966666667</v>
       </c>
       <c r="N10">
-        <v>19.1295626860718</v>
+        <v>89.82128900000001</v>
       </c>
       <c r="O10">
-        <v>0.1552148183463591</v>
+        <v>0.2158169336041788</v>
       </c>
       <c r="P10">
-        <v>0.1552148183463591</v>
+        <v>0.2158169336041788</v>
       </c>
       <c r="Q10">
-        <v>1256.392835437397</v>
+        <v>1974.089984228916</v>
       </c>
       <c r="R10">
-        <v>1256.392835437397</v>
+        <v>17766.80985806024</v>
       </c>
       <c r="S10">
-        <v>0.08006308067318743</v>
+        <v>0.110808442335177</v>
       </c>
       <c r="T10">
-        <v>0.08006308067318743</v>
+        <v>0.1108084423351769</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>65.67807409168709</v>
+        <v>65.93392299999999</v>
       </c>
       <c r="H11">
-        <v>65.67807409168709</v>
+        <v>197.801769</v>
       </c>
       <c r="I11">
-        <v>0.5158211150595693</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="J11">
-        <v>0.5158211150595693</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.4526004580291</v>
+        <v>32.53755666666667</v>
       </c>
       <c r="N11">
-        <v>29.4526004580291</v>
+        <v>97.61267000000001</v>
       </c>
       <c r="O11">
-        <v>0.2389746229405111</v>
+        <v>0.2345375729390458</v>
       </c>
       <c r="P11">
-        <v>0.2389746229405111</v>
+        <v>0.2345375729390459</v>
       </c>
       <c r="Q11">
-        <v>1934.390075075293</v>
+        <v>2145.328755868136</v>
       </c>
       <c r="R11">
-        <v>1934.390075075293</v>
+        <v>19307.95880281323</v>
       </c>
       <c r="S11">
-        <v>0.1232681564761146</v>
+        <v>0.1204203149976801</v>
       </c>
       <c r="T11">
-        <v>0.1232681564761146</v>
+        <v>0.1204203149976801</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.869504730580649</v>
+        <v>9.984842</v>
       </c>
       <c r="H12">
-        <v>9.869504730580649</v>
+        <v>29.954526</v>
       </c>
       <c r="I12">
-        <v>0.07751291440286252</v>
+        <v>0.07775344005688564</v>
       </c>
       <c r="J12">
-        <v>0.07751291440286252</v>
+        <v>0.07775344005688566</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.82037856335803</v>
+        <v>4.203295</v>
       </c>
       <c r="N12">
-        <v>3.82037856335803</v>
+        <v>12.609885</v>
       </c>
       <c r="O12">
-        <v>0.03099806171511114</v>
+        <v>0.03029823713397533</v>
       </c>
       <c r="P12">
-        <v>0.03099806171511114</v>
+        <v>0.03029823713397533</v>
       </c>
       <c r="Q12">
-        <v>37.70524430367098</v>
+        <v>41.96923645439</v>
       </c>
       <c r="R12">
-        <v>37.70524430367098</v>
+        <v>377.72312808951</v>
       </c>
       <c r="S12">
-        <v>0.00240275010437806</v>
+        <v>0.002355792164825858</v>
       </c>
       <c r="T12">
-        <v>0.00240275010437806</v>
+        <v>0.002355792164825858</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.869504730580649</v>
+        <v>9.984842</v>
       </c>
       <c r="H13">
-        <v>9.869504730580649</v>
+        <v>29.954526</v>
       </c>
       <c r="I13">
-        <v>0.07751291440286252</v>
+        <v>0.07775344005688564</v>
       </c>
       <c r="J13">
-        <v>0.07751291440286252</v>
+        <v>0.07775344005688566</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.6653629877145</v>
+        <v>63.83795266666667</v>
       </c>
       <c r="N13">
-        <v>63.6653629877145</v>
+        <v>191.513858</v>
       </c>
       <c r="O13">
-        <v>0.5165725904590619</v>
+        <v>0.4601574307875511</v>
       </c>
       <c r="P13">
-        <v>0.5165725904590619</v>
+        <v>0.4601574307875511</v>
       </c>
       <c r="Q13">
-        <v>628.3456011813824</v>
+        <v>637.4118709801454</v>
       </c>
       <c r="R13">
-        <v>628.3456011813824</v>
+        <v>5736.706838821308</v>
       </c>
       <c r="S13">
-        <v>0.04004104698711822</v>
+        <v>0.03577882321147036</v>
       </c>
       <c r="T13">
-        <v>0.04004104698711822</v>
+        <v>0.03577882321147036</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.869504730580649</v>
+        <v>9.984842</v>
       </c>
       <c r="H14">
-        <v>9.869504730580649</v>
+        <v>29.954526</v>
       </c>
       <c r="I14">
-        <v>0.07751291440286252</v>
+        <v>0.07775344005688564</v>
       </c>
       <c r="J14">
-        <v>0.07751291440286252</v>
+        <v>0.07775344005688566</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.17781945588362</v>
+        <v>8.211444666666667</v>
       </c>
       <c r="N14">
-        <v>7.17781945588362</v>
+        <v>24.634334</v>
       </c>
       <c r="O14">
-        <v>0.05823990653895685</v>
+        <v>0.05918982553524883</v>
       </c>
       <c r="P14">
-        <v>0.05823990653895685</v>
+        <v>0.05918982553524883</v>
       </c>
       <c r="Q14">
-        <v>70.84152307509721</v>
+        <v>81.98997758840935</v>
       </c>
       <c r="R14">
-        <v>70.84152307509721</v>
+        <v>737.9097982956841</v>
       </c>
       <c r="S14">
-        <v>0.004514344890384876</v>
+        <v>0.004602212551732488</v>
       </c>
       <c r="T14">
-        <v>0.004514344890384876</v>
+        <v>0.00460221255173249</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.869504730580649</v>
+        <v>9.984842</v>
       </c>
       <c r="H15">
-        <v>9.869504730580649</v>
+        <v>29.954526</v>
       </c>
       <c r="I15">
-        <v>0.07751291440286252</v>
+        <v>0.07775344005688564</v>
       </c>
       <c r="J15">
-        <v>0.07751291440286252</v>
+        <v>0.07775344005688566</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.1295626860718</v>
+        <v>29.94042966666667</v>
       </c>
       <c r="N15">
-        <v>19.1295626860718</v>
+        <v>89.82128900000001</v>
       </c>
       <c r="O15">
-        <v>0.1552148183463591</v>
+        <v>0.2158169336041788</v>
       </c>
       <c r="P15">
-        <v>0.1552148183463591</v>
+        <v>0.2158169336041788</v>
       </c>
       <c r="Q15">
-        <v>188.7993094241247</v>
+        <v>298.9504596337794</v>
       </c>
       <c r="R15">
-        <v>188.7993094241247</v>
+        <v>2690.554136704014</v>
       </c>
       <c r="S15">
-        <v>0.01203115292853719</v>
+        <v>0.01678050901025339</v>
       </c>
       <c r="T15">
-        <v>0.01203115292853719</v>
+        <v>0.01678050901025339</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.869504730580649</v>
+        <v>9.984842</v>
       </c>
       <c r="H16">
-        <v>9.869504730580649</v>
+        <v>29.954526</v>
       </c>
       <c r="I16">
-        <v>0.07751291440286252</v>
+        <v>0.07775344005688564</v>
       </c>
       <c r="J16">
-        <v>0.07751291440286252</v>
+        <v>0.07775344005688566</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.4526004580291</v>
+        <v>32.53755666666667</v>
       </c>
       <c r="N16">
-        <v>29.4526004580291</v>
+        <v>97.61267000000001</v>
       </c>
       <c r="O16">
-        <v>0.2389746229405111</v>
+        <v>0.2345375729390458</v>
       </c>
       <c r="P16">
-        <v>0.2389746229405111</v>
+        <v>0.2345375729390459</v>
       </c>
       <c r="Q16">
-        <v>290.68257954842</v>
+        <v>324.8823623827133</v>
       </c>
       <c r="R16">
-        <v>290.68257954842</v>
+        <v>2923.94126144442</v>
       </c>
       <c r="S16">
-        <v>0.01852361949244418</v>
+        <v>0.01823610311860354</v>
       </c>
       <c r="T16">
-        <v>0.01852361949244418</v>
+        <v>0.01823610311860355</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.8642204396306</v>
+        <v>16.22962566666667</v>
       </c>
       <c r="H17">
-        <v>15.8642204396306</v>
+        <v>48.688877</v>
       </c>
       <c r="I17">
-        <v>0.1245940900352437</v>
+        <v>0.1263824932251166</v>
       </c>
       <c r="J17">
-        <v>0.1245940900352437</v>
+        <v>0.1263824932251166</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.82037856335803</v>
+        <v>4.203295</v>
       </c>
       <c r="N17">
-        <v>3.82037856335803</v>
+        <v>12.609885</v>
       </c>
       <c r="O17">
-        <v>0.03099806171511114</v>
+        <v>0.03029823713397533</v>
       </c>
       <c r="P17">
-        <v>0.03099806171511114</v>
+        <v>0.03029823713397533</v>
       </c>
       <c r="Q17">
-        <v>60.60732769195104</v>
+        <v>68.21790441657167</v>
       </c>
       <c r="R17">
-        <v>60.60732769195104</v>
+        <v>613.961139749145</v>
       </c>
       <c r="S17">
-        <v>0.003862175292250597</v>
+        <v>0.003829166749317613</v>
       </c>
       <c r="T17">
-        <v>0.003862175292250597</v>
+        <v>0.003829166749317613</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.8642204396306</v>
+        <v>16.22962566666667</v>
       </c>
       <c r="H18">
-        <v>15.8642204396306</v>
+        <v>48.688877</v>
       </c>
       <c r="I18">
-        <v>0.1245940900352437</v>
+        <v>0.1263824932251166</v>
       </c>
       <c r="J18">
-        <v>0.1245940900352437</v>
+        <v>0.1263824932251166</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>63.6653629877145</v>
+        <v>63.83795266666667</v>
       </c>
       <c r="N18">
-        <v>63.6653629877145</v>
+        <v>191.513858</v>
       </c>
       <c r="O18">
-        <v>0.5165725904590619</v>
+        <v>0.4601574307875511</v>
       </c>
       <c r="P18">
-        <v>0.5165725904590619</v>
+        <v>0.4601574307875511</v>
       </c>
       <c r="Q18">
-        <v>1010.001352806202</v>
+        <v>1036.066075106385</v>
       </c>
       <c r="R18">
-        <v>1010.001352806202</v>
+        <v>9324.594675957465</v>
       </c>
       <c r="S18">
-        <v>0.06436189184539541</v>
+        <v>0.05815584337899473</v>
       </c>
       <c r="T18">
-        <v>0.06436189184539541</v>
+        <v>0.05815584337899473</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.8642204396306</v>
+        <v>16.22962566666667</v>
       </c>
       <c r="H19">
-        <v>15.8642204396306</v>
+        <v>48.688877</v>
       </c>
       <c r="I19">
-        <v>0.1245940900352437</v>
+        <v>0.1263824932251166</v>
       </c>
       <c r="J19">
-        <v>0.1245940900352437</v>
+        <v>0.1263824932251166</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.17781945588362</v>
+        <v>8.211444666666667</v>
       </c>
       <c r="N19">
-        <v>7.17781945588362</v>
+        <v>24.634334</v>
       </c>
       <c r="O19">
-        <v>0.05823990653895685</v>
+        <v>0.05918982553524883</v>
       </c>
       <c r="P19">
-        <v>0.05823990653895685</v>
+        <v>0.05918982553524883</v>
       </c>
       <c r="Q19">
-        <v>113.8705101240071</v>
+        <v>133.2686731225465</v>
       </c>
       <c r="R19">
-        <v>113.8705101240071</v>
+        <v>1199.418058102918</v>
       </c>
       <c r="S19">
-        <v>0.007256348158958967</v>
+        <v>0.007480557724704417</v>
       </c>
       <c r="T19">
-        <v>0.007256348158958967</v>
+        <v>0.007480557724704418</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.8642204396306</v>
+        <v>16.22962566666667</v>
       </c>
       <c r="H20">
-        <v>15.8642204396306</v>
+        <v>48.688877</v>
       </c>
       <c r="I20">
-        <v>0.1245940900352437</v>
+        <v>0.1263824932251166</v>
       </c>
       <c r="J20">
-        <v>0.1245940900352437</v>
+        <v>0.1263824932251166</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.1295626860718</v>
+        <v>29.94042966666667</v>
       </c>
       <c r="N20">
-        <v>19.1295626860718</v>
+        <v>89.82128900000001</v>
       </c>
       <c r="O20">
-        <v>0.1552148183463591</v>
+        <v>0.2158169336041788</v>
       </c>
       <c r="P20">
-        <v>0.1552148183463591</v>
+        <v>0.2158169336041788</v>
       </c>
       <c r="Q20">
-        <v>303.4755993655751</v>
+        <v>485.9219657891615</v>
       </c>
       <c r="R20">
-        <v>303.4755993655751</v>
+        <v>4373.297692102453</v>
       </c>
       <c r="S20">
-        <v>0.01933884905185025</v>
+        <v>0.02727548214909557</v>
       </c>
       <c r="T20">
-        <v>0.01933884905185025</v>
+        <v>0.02727548214909556</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.8642204396306</v>
+        <v>16.22962566666667</v>
       </c>
       <c r="H21">
-        <v>15.8642204396306</v>
+        <v>48.688877</v>
       </c>
       <c r="I21">
-        <v>0.1245940900352437</v>
+        <v>0.1263824932251166</v>
       </c>
       <c r="J21">
-        <v>0.1245940900352437</v>
+        <v>0.1263824932251166</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>29.4526004580291</v>
+        <v>32.53755666666667</v>
       </c>
       <c r="N21">
-        <v>29.4526004580291</v>
+        <v>97.61267000000001</v>
       </c>
       <c r="O21">
-        <v>0.2389746229405111</v>
+        <v>0.2345375729390458</v>
       </c>
       <c r="P21">
-        <v>0.2389746229405111</v>
+        <v>0.2345375729390459</v>
       </c>
       <c r="Q21">
-        <v>467.2425461865388</v>
+        <v>528.0723648079545</v>
       </c>
       <c r="R21">
-        <v>467.2425461865388</v>
+        <v>4752.65128327159</v>
       </c>
       <c r="S21">
-        <v>0.02977482568678845</v>
+        <v>0.02964144322300425</v>
       </c>
       <c r="T21">
-        <v>0.02977482568678845</v>
+        <v>0.02964144322300425</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.93596647691549</v>
+        <v>6.100318666666666</v>
       </c>
       <c r="H22">
-        <v>5.93596647691549</v>
+        <v>18.300956</v>
       </c>
       <c r="I22">
-        <v>0.04661977211457723</v>
+        <v>0.04750408286646571</v>
       </c>
       <c r="J22">
-        <v>0.04661977211457723</v>
+        <v>0.04750408286646571</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.82037856335803</v>
+        <v>4.203295</v>
       </c>
       <c r="N22">
-        <v>3.82037856335803</v>
+        <v>12.609885</v>
       </c>
       <c r="O22">
-        <v>0.03099806171511114</v>
+        <v>0.03029823713397533</v>
       </c>
       <c r="P22">
-        <v>0.03099806171511114</v>
+        <v>0.03029823713397533</v>
       </c>
       <c r="Q22">
-        <v>22.67763908121983</v>
+        <v>25.64143895000667</v>
       </c>
       <c r="R22">
-        <v>22.67763908121983</v>
+        <v>230.77295055006</v>
       </c>
       <c r="S22">
-        <v>0.001445122573152082</v>
+        <v>0.001439289967520193</v>
       </c>
       <c r="T22">
-        <v>0.001445122573152082</v>
+        <v>0.001439289967520193</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.93596647691549</v>
+        <v>6.100318666666666</v>
       </c>
       <c r="H23">
-        <v>5.93596647691549</v>
+        <v>18.300956</v>
       </c>
       <c r="I23">
-        <v>0.04661977211457723</v>
+        <v>0.04750408286646571</v>
       </c>
       <c r="J23">
-        <v>0.04661977211457723</v>
+        <v>0.04750408286646571</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>63.6653629877145</v>
+        <v>63.83795266666667</v>
       </c>
       <c r="N23">
-        <v>63.6653629877145</v>
+        <v>191.513858</v>
       </c>
       <c r="O23">
-        <v>0.5165725904590619</v>
+        <v>0.4601574307875511</v>
       </c>
       <c r="P23">
-        <v>0.5165725904590619</v>
+        <v>0.4601574307875511</v>
       </c>
       <c r="Q23">
-        <v>377.9154604357295</v>
+        <v>389.4318542942498</v>
       </c>
       <c r="R23">
-        <v>377.9154604357295</v>
+        <v>3504.886688648248</v>
       </c>
       <c r="S23">
-        <v>0.0240824964478383</v>
+        <v>0.02185935672375179</v>
       </c>
       <c r="T23">
-        <v>0.0240824964478383</v>
+        <v>0.02185935672375179</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.93596647691549</v>
+        <v>6.100318666666666</v>
       </c>
       <c r="H24">
-        <v>5.93596647691549</v>
+        <v>18.300956</v>
       </c>
       <c r="I24">
-        <v>0.04661977211457723</v>
+        <v>0.04750408286646571</v>
       </c>
       <c r="J24">
-        <v>0.04661977211457723</v>
+        <v>0.04750408286646571</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.17781945588362</v>
+        <v>8.211444666666667</v>
       </c>
       <c r="N24">
-        <v>7.17781945588362</v>
+        <v>24.634334</v>
       </c>
       <c r="O24">
-        <v>0.05823990653895685</v>
+        <v>0.05918982553524883</v>
       </c>
       <c r="P24">
-        <v>0.05823990653895685</v>
+        <v>0.05918982553524883</v>
       </c>
       <c r="Q24">
-        <v>42.60729566747695</v>
+        <v>50.09242918036711</v>
       </c>
       <c r="R24">
-        <v>42.60729566747695</v>
+        <v>450.831862623304</v>
       </c>
       <c r="S24">
-        <v>0.002715131170820445</v>
+        <v>0.002811758377078108</v>
       </c>
       <c r="T24">
-        <v>0.002715131170820445</v>
+        <v>0.002811758377078109</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.93596647691549</v>
+        <v>6.100318666666666</v>
       </c>
       <c r="H25">
-        <v>5.93596647691549</v>
+        <v>18.300956</v>
       </c>
       <c r="I25">
-        <v>0.04661977211457723</v>
+        <v>0.04750408286646571</v>
       </c>
       <c r="J25">
-        <v>0.04661977211457723</v>
+        <v>0.04750408286646571</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.1295626860718</v>
+        <v>29.94042966666667</v>
       </c>
       <c r="N25">
-        <v>19.1295626860718</v>
+        <v>89.82128900000001</v>
       </c>
       <c r="O25">
-        <v>0.1552148183463591</v>
+        <v>0.2158169336041788</v>
       </c>
       <c r="P25">
-        <v>0.1552148183463591</v>
+        <v>0.2158169336041788</v>
       </c>
       <c r="Q25">
-        <v>113.5524428225756</v>
+        <v>182.6461619835871</v>
       </c>
       <c r="R25">
-        <v>113.5524428225756</v>
+        <v>1643.815457852284</v>
       </c>
       <c r="S25">
-        <v>0.007236079460112761</v>
+        <v>0.01025218549791944</v>
       </c>
       <c r="T25">
-        <v>0.007236079460112761</v>
+        <v>0.01025218549791944</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.93596647691549</v>
+        <v>6.100318666666666</v>
       </c>
       <c r="H26">
-        <v>5.93596647691549</v>
+        <v>18.300956</v>
       </c>
       <c r="I26">
-        <v>0.04661977211457723</v>
+        <v>0.04750408286646571</v>
       </c>
       <c r="J26">
-        <v>0.04661977211457723</v>
+        <v>0.04750408286646571</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>29.4526004580291</v>
+        <v>32.53755666666667</v>
       </c>
       <c r="N26">
-        <v>29.4526004580291</v>
+        <v>97.61267000000001</v>
       </c>
       <c r="O26">
-        <v>0.2389746229405111</v>
+        <v>0.2345375729390458</v>
       </c>
       <c r="P26">
-        <v>0.2389746229405111</v>
+        <v>0.2345375729390459</v>
       </c>
       <c r="Q26">
-        <v>174.8296489768465</v>
+        <v>198.4894643013911</v>
       </c>
       <c r="R26">
-        <v>174.8296489768465</v>
+        <v>1786.40517871252</v>
       </c>
       <c r="S26">
-        <v>0.01114094246265365</v>
+        <v>0.01114149230019618</v>
       </c>
       <c r="T26">
-        <v>0.01114094246265365</v>
+        <v>0.01114149230019618</v>
       </c>
     </row>
   </sheetData>
